--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E515EBA2-D0B3-4F59-BD8B-272A0E25397B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03D783-9267-4DC9-BD4B-126CC7B13FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="3285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27960" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SightRadius</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoseSightRadius</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeripheralVisionAngleDegrees</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -418,55 +430,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3">
         <v>100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03D783-9267-4DC9-BD4B-126CC7B13FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBDE8CA-BC90-4638-9A49-3251F16F3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -60,6 +60,10 @@
   </si>
   <si>
     <t>PeripheralVisionAngleDegrees</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultAttackRange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -441,10 +445,10 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +464,11 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,8 +484,11 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -494,8 +504,11 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -511,8 +524,11 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -523,10 +539,13 @@
         <v>1000</v>
       </c>
       <c r="D6" s="3">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="E6" s="3">
         <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBDE8CA-BC90-4638-9A49-3251F16F3CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFA36F-3688-499F-B6C5-E05C7A533F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEFA36F-3688-499F-B6C5-E05C7A533F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F2245-6D09-4182-AB05-C7A3A21E179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="1380" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>DefaultAttackRange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -445,10 +449,10 @@
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +471,11 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,8 +494,11 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -507,8 +517,11 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,8 +540,11 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -546,6 +562,9 @@
       </c>
       <c r="F6" s="3">
         <v>700</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1003</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Datas/MonsterData.xlsx
+++ b/Table/Datas/MonsterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294F2245-6D09-4182-AB05-C7A3A21E179D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED86B79-FD5A-4131-A473-18D9B85C2F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="1380" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26265" yWindow="1740" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>3500</v>
       </c>
       <c r="E6" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>700</v>
